--- a/Movies App/obj/Release/Package/PackageTmp/App_Data/movies_export.xlsx
+++ b/Movies App/obj/Release/Package/PackageTmp/App_Data/movies_export.xlsx
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1874,10 +1874,10 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C79" s="1">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C80" s="1">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
